--- a/DB Builder/Meeting Logs.xlsx
+++ b/DB Builder/Meeting Logs.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27030"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="98" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F904592A-0847-4A76-8B2F-E0AC308F38A0}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters\Course Work\Term-1(F23)\CSCI5408-Data\Data builder\DBBuilderProject_Group28\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -113,9 +117,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>* Discussed th progress this DB conceptual model</t>
-  </si>
-  <si>
     <t>10 min</t>
   </si>
   <si>
@@ -136,13 +137,16 @@
   </si>
   <si>
     <t>Intenal</t>
+  </si>
+  <si>
+    <t>* Discussed the progress till conceptual model.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,25 +504,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="91.5">
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45203</v>
       </c>
@@ -570,7 +574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30.75">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45210</v>
       </c>
@@ -596,7 +600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="198.75" customHeight="1">
+    <row r="4" spans="1:8" ht="198.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45211</v>
       </c>
@@ -622,7 +626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="198.75" customHeight="1">
+    <row r="5" spans="1:8" ht="198.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45221</v>
       </c>
@@ -648,7 +652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30.75">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45226</v>
       </c>
@@ -659,22 +663,22 @@
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
       </c>
       <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="7" spans="1:8" ht="91.5">
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45230</v>
       </c>
@@ -685,16 +689,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
